--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Dauer in Std.</t>
   </si>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:L19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,12 +620,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12">
+        <v>42024</v>
+      </c>
       <c r="D2" s="7">
         <f>SUM(A:A)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Stedronsky" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Dauer in Std.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>PK und FK</t>
+  </si>
+  <si>
+    <t>Design Neuüberlegungen</t>
   </si>
 </sst>
 </file>
@@ -156,14 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -452,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -462,13 +464,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -476,36 +478,42 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42023</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>SUM(A:A)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42024</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11">
+        <v>42032</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
@@ -593,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -606,13 +614,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -620,25 +628,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42024</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>SUM(A:A)</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Dauer in Std.</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Design Neuüberlegungen</t>
+  </si>
+  <si>
+    <t>Design Vorlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desgin Umsetzung und RM </t>
+  </si>
+  <si>
+    <t>Fehler überarbeitung FK</t>
+  </si>
+  <si>
+    <t>Stedronsky</t>
   </si>
 </sst>
 </file>
@@ -159,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -172,6 +184,8 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -455,7 +469,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -489,7 +503,7 @@
       </c>
       <c r="D2" s="6">
         <f>SUM(A:A)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -502,7 +516,9 @@
       <c r="C3" s="11">
         <v>42024</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -516,19 +532,37 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>42042</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>42044</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>42045</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
